--- a/docs/Begroting Projectskills/werk begroting.xlsx
+++ b/docs/Begroting Projectskills/werk begroting.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\HvA map\FYS Technische begeleiding\website Corendon\website-corendon\docs\Begroting Projectskills\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B5043031-DC67-48C5-9C1D-A50764F05965}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DFA5EE9-0F9E-4096-9CFA-479698D88F43}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{BE75E16D-561B-4F7C-B366-3E6D0BC44B9A}"/>
   </bookViews>
@@ -122,11 +122,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -444,19 +445,22 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="15.9453125" customWidth="1"/>
+    <col min="2" max="2" width="9.83984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
+      <c r="B1" s="4">
+        <v>44148</v>
+      </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -466,25 +470,40 @@
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="3" t="s">
         <v>5</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">

--- a/docs/Begroting Projectskills/werk begroting.xlsx
+++ b/docs/Begroting Projectskills/werk begroting.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\HvA map\FYS Technische begeleiding\website Corendon\website-corendon\docs\Begroting Projectskills\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\callu\Team Efficient FYS-Project\docs\Begroting Projectskills\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B5043031-DC67-48C5-9C1D-A50764F05965}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8969EE1-EA02-40BB-9715-A7DBB98BD861}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{BE75E16D-561B-4F7C-B366-3E6D0BC44B9A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{BE75E16D-561B-4F7C-B366-3E6D0BC44B9A}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -129,7 +129,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -145,7 +145,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -444,15 +444,15 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.9453125" customWidth="1"/>
+    <col min="1" max="1" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -462,37 +462,37 @@
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>7</v>
       </c>

--- a/docs/Begroting Projectskills/werk begroting.xlsx
+++ b/docs/Begroting Projectskills/werk begroting.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\HvA map\FYS Technische begeleiding\website Corendon\website-corendon\docs\Begroting Projectskills\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DFA5EE9-0F9E-4096-9CFA-479698D88F43}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DC35FF6-FD55-4795-9ECB-03354A5BD41D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{BE75E16D-561B-4F7C-B366-3E6D0BC44B9A}"/>
   </bookViews>
@@ -445,13 +445,13 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="15.9453125" customWidth="1"/>
-    <col min="2" max="2" width="9.83984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="9.83984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -461,9 +461,15 @@
       <c r="B1" s="4">
         <v>44148</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
+      <c r="C1" s="4">
+        <v>44154</v>
+      </c>
+      <c r="D1" s="4">
+        <v>44158</v>
+      </c>
+      <c r="E1" s="4">
+        <v>44160</v>
+      </c>
       <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -473,6 +479,9 @@
       <c r="B2">
         <v>2</v>
       </c>
+      <c r="C2">
+        <v>3</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="3" t="s">
@@ -481,6 +490,9 @@
       <c r="B3">
         <v>2</v>
       </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="3" t="s">
@@ -488,6 +500,9 @@
       </c>
       <c r="B4">
         <v>2</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -497,6 +512,12 @@
       <c r="B5">
         <v>2</v>
       </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="3" t="s">
@@ -505,15 +526,27 @@
       <c r="B6">
         <v>2</v>
       </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="C7">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="3" t="s">
         <v>7</v>
+      </c>
+      <c r="D8">
+        <v>1.5</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Begroting Projectskills/werk begroting.xlsx
+++ b/docs/Begroting Projectskills/werk begroting.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\HvA map\FYS Technische begeleiding\website Corendon\website-corendon\docs\Begroting Projectskills\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DC35FF6-FD55-4795-9ECB-03354A5BD41D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A611E37-475E-494D-890B-FEF636EEC28D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{BE75E16D-561B-4F7C-B366-3E6D0BC44B9A}"/>
   </bookViews>
@@ -122,9 +122,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -445,35 +444,37 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="15.9453125" customWidth="1"/>
-    <col min="2" max="5" width="9.83984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="6" width="9.83984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4">
+      <c r="B1" s="3">
         <v>44148</v>
       </c>
-      <c r="C1" s="4">
+      <c r="C1" s="3">
         <v>44154</v>
       </c>
-      <c r="D1" s="4">
+      <c r="D1" s="3">
         <v>44158</v>
       </c>
-      <c r="E1" s="4">
+      <c r="E1" s="3">
         <v>44160</v>
       </c>
-      <c r="F1" s="1"/>
+      <c r="F1" s="3">
+        <v>44162</v>
+      </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B2">
@@ -484,7 +485,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B3">
@@ -493,9 +494,12 @@
       <c r="C3">
         <v>3</v>
       </c>
+      <c r="F3">
+        <v>4</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B4">
@@ -504,9 +508,12 @@
       <c r="C4">
         <v>3</v>
       </c>
+      <c r="F4">
+        <v>4</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B5">
@@ -518,9 +525,12 @@
       <c r="E5">
         <v>3</v>
       </c>
+      <c r="F5">
+        <v>4</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B6">
@@ -532,9 +542,12 @@
       <c r="E6">
         <v>3</v>
       </c>
+      <c r="F6">
+        <v>4</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C7">
@@ -542,7 +555,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D8">

--- a/docs/Begroting Projectskills/werk begroting.xlsx
+++ b/docs/Begroting Projectskills/werk begroting.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\HvA map\FYS Technische begeleiding\website Corendon\website-corendon\docs\Begroting Projectskills\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\callu\Team Efficient FYS-Project\docs\Begroting Projectskills\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A611E37-475E-494D-890B-FEF636EEC28D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6110C8A2-FB2A-4BF4-A71B-C465DCC87A57}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{BE75E16D-561B-4F7C-B366-3E6D0BC44B9A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{BE75E16D-561B-4F7C-B366-3E6D0BC44B9A}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,6 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
   <si>
     <t>Gewerkte uren</t>
   </si>
@@ -58,6 +57,9 @@
   </si>
   <si>
     <t>Pim</t>
+  </si>
+  <si>
+    <t>3,5</t>
   </si>
 </sst>
 </file>
@@ -122,14 +124,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -145,7 +148,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -441,19 +444,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3827D50F-C076-472E-AD24-D8FEEAC148E0}">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.9453125" customWidth="1"/>
-    <col min="2" max="6" width="9.83984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="2" max="6" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -472,8 +476,11 @@
       <c r="F1" s="3">
         <v>44162</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G1" s="4">
+        <v>44167</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -484,7 +491,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -497,8 +504,11 @@
       <c r="F3">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -512,7 +522,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -528,8 +538,11 @@
       <c r="F5">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -546,7 +559,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
@@ -554,7 +567,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>

--- a/docs/Begroting Projectskills/werk begroting.xlsx
+++ b/docs/Begroting Projectskills/werk begroting.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\callu\Team Efficient FYS-Project\docs\Begroting Projectskills\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6110C8A2-FB2A-4BF4-A71B-C465DCC87A57}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CEC4578-A205-481C-964F-9901A0C8B1AF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{BE75E16D-561B-4F7C-B366-3E6D0BC44B9A}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
   <si>
     <t>Gewerkte uren</t>
   </si>
@@ -60,14 +60,32 @@
   </si>
   <si>
     <t>3,5</t>
+  </si>
+  <si>
+    <t>TOTAAL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -83,7 +101,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -120,19 +138,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Total" xfId="1" builtinId="25"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -444,20 +482,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3827D50F-C076-472E-AD24-D8FEEAC148E0}">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
     <col min="2" max="6" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="9.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -479,8 +517,17 @@
       <c r="G1" s="4">
         <v>44167</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1" s="4">
+        <v>44168</v>
+      </c>
+      <c r="I1" s="4">
+        <v>44086</v>
+      </c>
+      <c r="O1" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -490,8 +537,12 @@
       <c r="C2">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="O2" s="7">
+        <f>SUM(B2:N2)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -507,8 +558,19 @@
       <c r="G3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3" s="5"/>
+      <c r="O3" s="8">
+        <f>SUM(B3:N3)</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -521,8 +583,15 @@
       <c r="F4">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="O4" s="7">
+        <f>SUM(B4:N4)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -541,8 +610,15 @@
       <c r="G5" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="O5" s="7">
+        <f>SUM(B5:N5)</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -558,24 +634,97 @@
       <c r="F6">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="O6" s="7">
+        <f>SUM(B6:N6)</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C7">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="O7" s="7">
+        <f>SUM(A7:N7)</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D8">
         <v>1.5</v>
       </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="O8" s="7">
+        <f>SUM(B8:N8)</f>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A9" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="7">
+        <f>SUM(B2:B8)</f>
+        <v>10</v>
+      </c>
+      <c r="C9" s="7">
+        <f>SUM(C2:C8)</f>
+        <v>15.5</v>
+      </c>
+      <c r="D9" s="7">
+        <f>SUM(D8)</f>
+        <v>1.5</v>
+      </c>
+      <c r="E9" s="9">
+        <f>SUM(E2:E8)</f>
+        <v>6</v>
+      </c>
+      <c r="F9" s="7">
+        <f>SUM(F3:F8)</f>
+        <v>16</v>
+      </c>
+      <c r="G9" s="7">
+        <v>7</v>
+      </c>
+      <c r="H9" s="7">
+        <f>SUM(H2:H8)</f>
+        <v>5</v>
+      </c>
+      <c r="I9" s="7">
+        <f>SUM(I2:I8)</f>
+        <v>2</v>
+      </c>
+      <c r="J9" s="7">
+        <f>SUM(J2:J8)</f>
+        <v>0</v>
+      </c>
+      <c r="K9" s="7">
+        <f>SUM(K2:K8)</f>
+        <v>0</v>
+      </c>
+      <c r="O9" s="7">
+        <f>SUM(O2:O8)</f>
+        <v>56</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="E9" formulaRange="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>